--- a/prodinfo/mea/sa/output/res20251222.xlsx
+++ b/prodinfo/mea/sa/output/res20251222.xlsx
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-12-22 22:45:29</v>
+        <v>2025-12-22 23:02:15</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>

--- a/prodinfo/mea/sa/output/res20251222.xlsx
+++ b/prodinfo/mea/sa/output/res20251222.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-12-22 23:02:15</v>
+        <v>2025-12-22 23:03:36</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
@@ -448,9 +448,331 @@
         <v>1999</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2025-12-22 23:03:41</v>
+      </c>
+      <c r="B3" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C3" t="str">
+        <v>extra</v>
+      </c>
+      <c r="D3" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-4g-lte-256-gb-white/p/100477716</v>
+      </c>
+      <c r="E3" t="str">
+        <v>HUAWEI nova 14 12+256</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2025-12-22 23:03:46</v>
+      </c>
+      <c r="B4" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C4" t="str">
+        <v>extra</v>
+      </c>
+      <c r="D4" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-pro-4g-lte-512-gb-white/p/100392622</v>
+      </c>
+      <c r="E4" t="str">
+        <v>HUAWEI nova 13 Pro 12+512</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2025-12-22 23:03:50</v>
+      </c>
+      <c r="B5" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C5" t="str">
+        <v>extra</v>
+      </c>
+      <c r="D5" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-4g-lte-256-gb-black/p/100392611</v>
+      </c>
+      <c r="E5" t="str">
+        <v>HUAWEI nova 13  12+256</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2025-12-22 23:03:54</v>
+      </c>
+      <c r="B6" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C6" t="str">
+        <v>extra</v>
+      </c>
+      <c r="D6" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-4g-lte-256-gb-black/p/100466488</v>
+      </c>
+      <c r="E6" t="str">
+        <v>HUAWEI Pura 80 12+256</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2025-12-22 23:04:00</v>
+      </c>
+      <c r="B7" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C7" t="str">
+        <v>extra</v>
+      </c>
+      <c r="D7" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-fe-5g-256-gb-navy/p/100474886</v>
+      </c>
+      <c r="E7" t="str">
+        <v>SAMSUNG S25 FE 8+256</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2025-12-22 23:04:04</v>
+      </c>
+      <c r="B8" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C8" t="str">
+        <v>extra</v>
+      </c>
+      <c r="D8" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-a56-5g-256-gb-awesome-graphite/p/100396751</v>
+      </c>
+      <c r="E8" t="str">
+        <v>SAMSUNG A56 8+256</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2025-12-22 23:04:09</v>
+      </c>
+      <c r="B9" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C9" t="str">
+        <v>extra</v>
+      </c>
+      <c r="D9" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-pro-5g-512-gb-gray/p/100476393</v>
+      </c>
+      <c r="E9" t="str">
+        <v>XIAOMI 15T Pro 12+512</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2025-12-22 23:04:13</v>
+      </c>
+      <c r="B10" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C10" t="str">
+        <v>extra</v>
+      </c>
+      <c r="D10" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-5g-256-gb-black/p/100476401</v>
+      </c>
+      <c r="E10" t="str">
+        <v>XIAOMI 15T 12+256</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2025-12-22 23:04:17</v>
+      </c>
+      <c r="B11" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C11" t="str">
+        <v>extra</v>
+      </c>
+      <c r="D11" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno13-5g-512-gb-luminous-blue/p/100391948</v>
+      </c>
+      <c r="E11" t="str">
+        <v>OPPO Reno 13 12+512</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2025-12-22 23:04:21</v>
+      </c>
+      <c r="B12" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C12" t="str">
+        <v>extra</v>
+      </c>
+      <c r="D12" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno-14f-5g-256-gb-luminous-green/p/100461328</v>
+      </c>
+      <c r="E12" t="str">
+        <v>OPPO Reno 14F 12+256</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2025-12-22 23:04:25</v>
+      </c>
+      <c r="B13" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C13" t="str">
+        <v>extra</v>
+      </c>
+      <c r="D13" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9d-5g-256-gb-reddish-brown/p/100477711</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Honor X9D 12+256</v>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2025-12-22 23:04:29</v>
+      </c>
+      <c r="B14" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C14" t="str">
+        <v>extra</v>
+      </c>
+      <c r="D14" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9c-5g-256gb-titanium-black/p/100389394</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Honor X9C 12+256</v>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2025-12-22 23:04:33</v>
+      </c>
+      <c r="B15" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C15" t="str">
+        <v>extra</v>
+      </c>
+      <c r="D15" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-5g-256-gb-desert-gold/p/100415761</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Honor 400 12+256</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2025-12-22 23:04:38</v>
+      </c>
+      <c r="B16" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C16" t="str">
+        <v>extra</v>
+      </c>
+      <c r="D16" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-pro-5g-512-gb-midnight-black/p/100415747</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Honor 400 Pro 12+512</v>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v>2399</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G16"/>
   </ignoredErrors>
 </worksheet>
 </file>